--- a/TP2/LDC.xlsx
+++ b/TP2/LDC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Roy\Unla\IS2\TPsIS2\TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roy\Unla\IS2\TPsIS2\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{776D7F77-4134-4752-AE15-72D4824CA10B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59428D0D-F73C-49A5-B547-68D26A35324B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{AE9B6306-7961-4605-A3BC-1E043EFED89D}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Calculo de Lineas de Codigo</t>
   </si>
   <si>
-    <t>Funcion</t>
-  </si>
-  <si>
     <t>LDC probable</t>
   </si>
   <si>
@@ -51,46 +48,13 @@
     <t>Valor esperado</t>
   </si>
   <si>
-    <t>Consulta de vuelos</t>
-  </si>
-  <si>
-    <t>Reserva de vuelos</t>
-  </si>
-  <si>
-    <t>Pago por distintos medios</t>
-  </si>
-  <si>
-    <t>Financiacion por distintos medios</t>
-  </si>
-  <si>
-    <t>Cancelacion de vuelos</t>
-  </si>
-  <si>
-    <t>Realizar estadisticas</t>
-  </si>
-  <si>
-    <t>Proyectar preferencias de los clientes</t>
-  </si>
-  <si>
-    <t>Ranquear clientes</t>
-  </si>
-  <si>
-    <t>Llevar estadisticas sobre finanzas</t>
-  </si>
-  <si>
-    <t>Registro de usuario</t>
-  </si>
-  <si>
-    <t>Login de usuarios</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>LDC/PF:</t>
   </si>
   <si>
     <t>PF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntos de Funcion </t>
   </si>
 </sst>
 </file>
@@ -149,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -159,6 +123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C079323-0FC5-4C16-986D-1173E39C7A6C}">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,40 +464,38 @@
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <f>G18</f>
-        <v>5585.0666666666648</v>
+        <f>G6</f>
+        <v>36302.933333333334</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="L4">
         <v>64</v>
@@ -537,288 +503,115 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5">
-        <v>13</v>
+        <v>572</v>
       </c>
       <c r="D6" s="5">
         <f>E6*0.75</f>
-        <v>624</v>
+        <v>27456</v>
       </c>
       <c r="E6" s="5">
         <f>C6*L4</f>
-        <v>832</v>
+        <v>36608</v>
       </c>
       <c r="F6" s="5">
         <f>E6*1.2</f>
-        <v>998.4</v>
-      </c>
-      <c r="G6" s="5">
+        <v>43929.599999999999</v>
+      </c>
+      <c r="G6" s="9">
         <f>(D6+F6+(E6*4))/6</f>
-        <v>825.06666666666661</v>
+        <v>36302.933333333334</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" ref="D7:D16" si="0">E7*0.75</f>
-        <v>816</v>
-      </c>
-      <c r="E7" s="5">
-        <f>C7*L4</f>
-        <v>1088</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" ref="F7:F16" si="1">E7*1.2</f>
-        <v>1305.5999999999999</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" ref="G7:G16" si="2">(D7+F7+(E7*4))/6</f>
-        <v>1078.9333333333334</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>624</v>
-      </c>
-      <c r="E8" s="5">
-        <f>C8*L4</f>
-        <v>832</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
-        <v>998.4</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="2"/>
-        <v>825.06666666666661</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>672</v>
-      </c>
-      <c r="E9" s="5">
-        <f>C9*L4</f>
-        <v>896</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>1075.2</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="2"/>
-        <v>888.5333333333333</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E10" s="5">
-        <f>C10*L4</f>
-        <v>320</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="2"/>
-        <v>317.33333333333331</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
-      <c r="E11" s="5">
-        <f>C11*L4</f>
-        <v>448</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
-        <v>537.6</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="2"/>
-        <v>444.26666666666665</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="E12" s="5">
-        <f>C12*L4</f>
-        <v>192</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>230.39999999999998</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="2"/>
-        <v>190.4</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="E13" s="5">
-        <f>C13*L4</f>
-        <v>192</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
-        <v>230.39999999999998</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="2"/>
-        <v>190.4</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="E14" s="5">
-        <f>C14*L4</f>
-        <v>192</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="1"/>
-        <v>230.39999999999998</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="2"/>
-        <v>190.4</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E15" s="5">
-        <f>C15*L4</f>
-        <v>320</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="2"/>
-        <v>317.33333333333331</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="E16" s="5">
-        <f>C16*L4</f>
-        <v>320</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="1"/>
-        <v>384</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="2"/>
-        <v>317.33333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="6">
-        <f>SUM(G6:G16)</f>
-        <v>5585.0666666666648</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
